--- a/branches/master/StructureDefinition-QT.xlsx
+++ b/branches/master/StructureDefinition-QT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:07+00:00</t>
+    <t>2023-02-04T16:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-QT.xlsx
+++ b/branches/master/StructureDefinition-QT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:39+00:00</t>
+    <t>2023-02-04T16:53:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-QT.xlsx
+++ b/branches/master/StructureDefinition-QT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:53:50+00:00</t>
+    <t>2023-02-20T20:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
